--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R4d436080454f411e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R18ca51d380a349f2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R18ca51d380a349f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R3aaa7376f4f54b5d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R3aaa7376f4f54b5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R99f31368dd56471a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R99f31368dd56471a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R0446304cc54746b7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R0446304cc54746b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R451920e5451446e1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R451920e5451446e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R58faf47678934293"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R58faf47678934293"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R181c52778e5942cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R181c52778e5942cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R18f25743aad146a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R18f25743aad146a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R804fba7f979149bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R804fba7f979149bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R12fefce276184703"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R12fefce276184703"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Rf786b227362c4f04"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="Rf786b227362c4f04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R7b3bcf632175409b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/071_CsvWithoutHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R7b3bcf632175409b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV No Header" sheetId="1" r:id="R3b683e4fb5ca4560"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
